--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2020-07-29.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2020-07-29.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="37">
   <si>
     <t>Secteur</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Taxi beach</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
     <t>Taxi plage</t>
@@ -88,7 +88,7 @@
     <t>Speed boat</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Particuliers</t>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>U Saleccia</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>2 pers debarqués au ponton, le reste sur la plage</t>
@@ -1377,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3408,8 +3405,8 @@
   <sheetPr/>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3488,7 +3485,7 @@
     <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -3739,7 +3736,7 @@
     <row r="17" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -3811,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3870,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3992,7 +3989,7 @@
     <row r="30" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -4123,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -4245,7 +4242,7 @@
     <row r="43" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C43" s="5">
         <v>0</v>
@@ -4375,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4497,7 +4494,7 @@
     <row r="56" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -4607,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4629,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4751,7 +4748,7 @@
     <row r="69" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A69" s="3"/>
       <c r="B69" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C69" s="5">
         <v>0</v>
@@ -5002,7 +4999,7 @@
     <row r="82" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A82" s="3"/>
       <c r="B82" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C82" s="5">
         <v>0</v>
@@ -5251,7 +5248,7 @@
     <row r="95" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A95" s="3"/>
       <c r="B95" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C95" s="5">
         <v>0</v>
@@ -5361,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
